--- a/mybase.xlsx
+++ b/mybase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Заметки" sheetId="1" state="visible" r:id="rId1"/>
@@ -329,10 +329,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -362,6 +362,18 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">вызвать барнса </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-12-26</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>хакнуть сервак</t>
         </is>
       </c>
     </row>
@@ -376,10 +388,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -427,6 +439,23 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Всегда так</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://cs12.pikabu.ru/post_img/2020/04/23/5/1587625538188264598.jpg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Том и Джерри, Мотивация,</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
